--- a/valuation-app/src/test/resources/excel/P45-P46.xlsx
+++ b/valuation-app/src/test/resources/excel/P45-P46.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IRS-Cleared" sheetId="1" state="visible" r:id="rId2"/>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">4.45</t>
   </si>
   <si>
-    <t xml:space="preserve">NOK-NIBOR-NIBR</t>
+    <t xml:space="preserve">NOK-NIBOR-OIBOR</t>
   </si>
   <si>
     <t xml:space="preserve">500021</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">SGSI</t>
   </si>
   <si>
-    <t xml:space="preserve">SGD-SOR-Reuters</t>
+    <t xml:space="preserve">SGD-SOR-VWAP</t>
   </si>
   <si>
     <t xml:space="preserve">500026</t>
@@ -1229,65 +1229,64 @@
   </sheetPr>
   <dimension ref="A1:BE51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="50" min="49" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="56" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="50" min="49" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="56" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9570,56 +9569,56 @@
   </sheetPr>
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC41" activeCellId="0" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/valuation-app/src/test/resources/excel/P45-P46.xlsx
+++ b/valuation-app/src/test/resources/excel/P45-P46.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IRS-Cleared" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="378">
   <si>
     <t xml:space="preserve">Value Date</t>
   </si>
@@ -377,6 +377,9 @@
     <t xml:space="preserve">0.24</t>
   </si>
   <si>
+    <t xml:space="preserve">1Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">500007</t>
   </si>
   <si>
@@ -410,9 +413,6 @@
     <t xml:space="preserve">500009</t>
   </si>
   <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
     <t xml:space="preserve">500010</t>
   </si>
   <si>
@@ -491,6 +491,9 @@
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">4.05</t>
+  </si>
+  <si>
     <t xml:space="preserve">500013</t>
   </si>
   <si>
@@ -569,9 +572,6 @@
     <t xml:space="preserve">-0.31</t>
   </si>
   <si>
-    <t xml:space="preserve">1Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">CZPR</t>
   </si>
   <si>
@@ -752,6 +752,9 @@
     <t xml:space="preserve">-37.3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">500024</t>
   </si>
   <si>
@@ -803,6 +806,9 @@
     <t xml:space="preserve">SGSI</t>
   </si>
   <si>
+    <t xml:space="preserve">1.285</t>
+  </si>
+  <si>
     <t xml:space="preserve">SGD-SOR-VWAP</t>
   </si>
   <si>
@@ -911,37 +917,73 @@
     <t xml:space="preserve">500039</t>
   </si>
   <si>
+    <t xml:space="preserve">2.32</t>
+  </si>
+  <si>
     <t xml:space="preserve">500040</t>
   </si>
   <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
     <t xml:space="preserve">500041</t>
   </si>
   <si>
+    <t xml:space="preserve">5.71</t>
+  </si>
+  <si>
     <t xml:space="preserve">500042</t>
   </si>
   <si>
+    <t xml:space="preserve">0.50</t>
+  </si>
+  <si>
     <t xml:space="preserve">500043</t>
   </si>
   <si>
+    <t xml:space="preserve">6.84</t>
+  </si>
+  <si>
     <t xml:space="preserve">500044</t>
   </si>
   <si>
+    <t xml:space="preserve">7.60</t>
+  </si>
+  <si>
     <t xml:space="preserve">500045</t>
   </si>
   <si>
+    <t xml:space="preserve">4.34</t>
+  </si>
+  <si>
     <t xml:space="preserve">500046</t>
   </si>
   <si>
+    <t xml:space="preserve">5.27</t>
+  </si>
+  <si>
     <t xml:space="preserve">500047</t>
   </si>
   <si>
+    <t xml:space="preserve">5.76</t>
+  </si>
+  <si>
     <t xml:space="preserve">500048</t>
   </si>
   <si>
+    <t xml:space="preserve">2.78</t>
+  </si>
+  <si>
     <t xml:space="preserve">500049</t>
   </si>
   <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
     <t xml:space="preserve">500050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
   </si>
   <si>
     <t xml:space="preserve">Counterpart ID</t>
@@ -1189,7 +1231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1207,6 +1249,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1229,64 +1275,65 @@
   </sheetPr>
   <dimension ref="A1:BE51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AU15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BD54" activeCellId="0" sqref="BD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="50" min="49" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="56" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="50" min="49" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,7 +1682,7 @@
         <v>41247</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>41605</v>
@@ -1692,7 +1739,7 @@
         <v>41247</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="AA3" s="0" t="s">
         <v>88</v>
@@ -1728,7 +1775,7 @@
         <v>41247</v>
       </c>
       <c r="AM3" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="AN3" s="0" t="s">
         <v>88</v>
@@ -2000,7 +2047,7 @@
         <v>91</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>67</v>
@@ -2036,7 +2083,7 @@
         <v>91</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AF5" s="0" t="s">
         <v>67</v>
@@ -2332,7 +2379,7 @@
         <v>106</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>67</v>
@@ -2456,7 +2503,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>106</v>
@@ -2465,7 +2512,7 @@
         <v>41611</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>41611</v>
@@ -2474,16 +2521,16 @@
         <v>59</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>999</v>
@@ -2498,7 +2545,7 @@
         <v>106</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>67</v>
@@ -2522,7 +2569,7 @@
         <v>41611</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="AA8" s="0" t="s">
         <v>70</v>
@@ -2534,7 +2581,7 @@
         <v>106</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AF8" s="0" t="s">
         <v>67</v>
@@ -2558,7 +2605,7 @@
         <v>41611</v>
       </c>
       <c r="AM8" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="AN8" s="0" t="s">
         <v>70</v>
@@ -2622,10 +2669,10 @@
         <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>41248</v>
@@ -2661,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>66</v>
@@ -2670,13 +2717,13 @@
         <v>67</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W9" s="0" t="s">
         <v>66</v>
@@ -2691,13 +2738,13 @@
         <v>44900</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC9" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE9" s="0" t="s">
         <v>87</v>
@@ -2706,13 +2753,13 @@
         <v>67</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ9" s="0" t="s">
         <v>87</v>
@@ -2727,7 +2774,7 @@
         <v>44900</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AP9" s="0" t="s">
         <v>75</v>
@@ -2788,10 +2835,10 @@
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>41248</v>
@@ -2827,28 +2874,28 @@
         <v>72</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U10" s="0" t="s">
         <v>97</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W10" s="0" t="s">
         <v>87</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Y10" s="2" t="n">
         <v>41248</v>
@@ -2857,13 +2904,13 @@
         <v>44900</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC10" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE10" s="0" t="s">
         <v>87</v>
@@ -2872,13 +2919,13 @@
         <v>67</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH10" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ10" s="0" t="s">
         <v>87</v>
@@ -2893,7 +2940,7 @@
         <v>44900</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AP10" s="0" t="s">
         <v>74</v>
@@ -2996,7 +3043,7 @@
         <v>131</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>67</v>
@@ -3337,7 +3384,7 @@
         <v>148</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AC13" s="0" t="s">
         <v>72</v>
@@ -3434,7 +3481,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>91</v>
@@ -3443,7 +3490,7 @@
         <v>41607</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>41605</v>
@@ -3452,16 +3499,16 @@
         <v>59</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>999</v>
@@ -3491,13 +3538,13 @@
         <v>41607</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AA14" s="0" t="s">
         <v>70</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC14" s="0" t="s">
         <v>72</v>
@@ -3530,7 +3577,7 @@
         <v>41607</v>
       </c>
       <c r="AM14" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AN14" s="0" t="s">
         <v>70</v>
@@ -3594,7 +3641,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>91</v>
@@ -3603,7 +3650,7 @@
         <v>41613</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>41611</v>
@@ -3612,16 +3659,16 @@
         <v>59</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>999</v>
@@ -3651,13 +3698,13 @@
         <v>41613</v>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC15" s="0" t="s">
         <v>72</v>
@@ -3690,10 +3737,10 @@
         <v>41613</v>
       </c>
       <c r="AM15" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="AN15" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP15" s="0" t="s">
         <v>75</v>
@@ -3754,7 +3801,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>106</v>
@@ -3772,16 +3819,16 @@
         <v>59</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>999</v>
@@ -3814,10 +3861,10 @@
         <v>43082</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC16" s="0" t="s">
         <v>72</v>
@@ -3853,7 +3900,7 @@
         <v>43082</v>
       </c>
       <c r="AN16" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP16" s="0" t="s">
         <v>75</v>
@@ -3914,16 +3961,16 @@
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>40889</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>44542</v>
+      <c r="G17" s="5" t="n">
+        <v>44543</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>41620</v>
@@ -3932,16 +3979,16 @@
         <v>59</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>999</v>
@@ -3953,10 +4000,10 @@
         <v>65</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>67</v>
@@ -3971,7 +4018,7 @@
         <v>40889</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AA17" s="0" t="s">
         <v>137</v>
@@ -3983,7 +4030,7 @@
         <v>72</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE17" s="0" t="s">
         <v>66</v>
@@ -4010,7 +4057,7 @@
         <v>40889</v>
       </c>
       <c r="AM17" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AN17" s="0" t="s">
         <v>137</v>
@@ -4077,13 +4124,13 @@
         <v>186</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>40889</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>41620</v>
@@ -4113,10 +4160,10 @@
         <v>65</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>67</v>
@@ -4131,7 +4178,7 @@
         <v>40889</v>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AA18" s="0" t="s">
         <v>137</v>
@@ -4143,7 +4190,7 @@
         <v>72</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE18" s="0" t="s">
         <v>66</v>
@@ -4170,7 +4217,7 @@
         <v>40889</v>
       </c>
       <c r="AM18" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AN18" s="0" t="s">
         <v>137</v>
@@ -4243,7 +4290,7 @@
         <v>41607</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>41605</v>
@@ -4291,7 +4338,7 @@
         <v>41607</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AA19" s="0" t="s">
         <v>70</v>
@@ -4330,7 +4377,7 @@
         <v>41607</v>
       </c>
       <c r="AM19" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AN19" s="0" t="s">
         <v>70</v>
@@ -5097,7 +5144,7 @@
         <v>70</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AC24" s="0" t="s">
         <v>72</v>
@@ -5194,16 +5241,16 @@
         <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>41618</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>41614</v>
@@ -5212,16 +5259,16 @@
         <v>59</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>999</v>
@@ -5233,16 +5280,16 @@
         <v>65</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U25" s="0" t="s">
         <v>147</v>
@@ -5251,19 +5298,19 @@
         <v>41618</v>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AC25" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD25" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE25" s="0" t="s">
         <v>87</v>
@@ -5272,13 +5319,13 @@
         <v>67</v>
       </c>
       <c r="AG25" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AH25" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI25" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AJ25" s="0" t="s">
         <v>87</v>
@@ -5290,10 +5337,10 @@
         <v>41618</v>
       </c>
       <c r="AM25" s="2" t="n">
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="AN25" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP25" s="0" t="s">
         <v>75</v>
@@ -5354,16 +5401,16 @@
         <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>41607</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>41605</v>
@@ -5372,16 +5419,16 @@
         <v>59</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>999</v>
@@ -5393,7 +5440,7 @@
         <v>65</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R26" s="0" t="s">
         <v>66</v>
@@ -5402,7 +5449,7 @@
         <v>67</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U26" s="0" t="s">
         <v>69</v>
@@ -5411,19 +5458,19 @@
         <v>41607</v>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AA26" s="0" t="s">
         <v>70</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="AC26" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AE26" s="0" t="s">
         <v>66</v>
@@ -5432,13 +5479,13 @@
         <v>67</v>
       </c>
       <c r="AG26" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AH26" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AI26" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ26" s="0" t="s">
         <v>66</v>
@@ -5450,7 +5497,7 @@
         <v>41607</v>
       </c>
       <c r="AM26" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AN26" s="0" t="s">
         <v>70</v>
@@ -5514,10 +5561,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>41605</v>
@@ -5532,16 +5579,16 @@
         <v>59</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N27" s="0" t="n">
         <v>999</v>
@@ -5553,7 +5600,7 @@
         <v>65</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R27" s="0" t="s">
         <v>87</v>
@@ -5562,7 +5609,7 @@
         <v>67</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="U27" s="0" t="s">
         <v>69</v>
@@ -5577,13 +5624,13 @@
         <v>70</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AC27" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AE27" s="0" t="s">
         <v>87</v>
@@ -5592,13 +5639,13 @@
         <v>67</v>
       </c>
       <c r="AG27" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH27" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AI27" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AJ27" s="0" t="s">
         <v>87</v>
@@ -5674,10 +5721,10 @@
         <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>41613</v>
@@ -5713,7 +5760,7 @@
         <v>65</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R28" s="0" t="s">
         <v>87</v>
@@ -5722,7 +5769,7 @@
         <v>67</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U28" s="0" t="s">
         <v>69</v>
@@ -5734,16 +5781,16 @@
         <v>43074</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AC28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE28" s="0" t="s">
         <v>87</v>
@@ -5752,13 +5799,13 @@
         <v>67</v>
       </c>
       <c r="AG28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH28" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI28" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ28" s="0" t="s">
         <v>87</v>
@@ -5773,7 +5820,7 @@
         <v>43074</v>
       </c>
       <c r="AN28" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AP28" s="0" t="s">
         <v>75</v>
@@ -5834,10 +5881,10 @@
         <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>41613</v>
@@ -5867,13 +5914,13 @@
         <v>999</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>65</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R29" s="0" t="s">
         <v>87</v>
@@ -5882,7 +5929,7 @@
         <v>67</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>69</v>
@@ -5894,16 +5941,16 @@
         <v>45265</v>
       </c>
       <c r="AA29" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AC29" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE29" s="0" t="s">
         <v>87</v>
@@ -5912,13 +5959,13 @@
         <v>67</v>
       </c>
       <c r="AG29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH29" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI29" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ29" s="0" t="s">
         <v>87</v>
@@ -5933,7 +5980,7 @@
         <v>45265</v>
       </c>
       <c r="AN29" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AP29" s="0" t="s">
         <v>75</v>
@@ -5994,10 +6041,10 @@
         <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>41618</v>
@@ -6012,28 +6059,28 @@
         <v>59</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>999</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>65</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R30" s="0" t="s">
         <v>66</v>
@@ -6042,7 +6089,7 @@
         <v>67</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="U30" s="0" t="s">
         <v>147</v>
@@ -6054,16 +6101,16 @@
         <v>45270</v>
       </c>
       <c r="AA30" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AC30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AE30" s="0" t="s">
         <v>87</v>
@@ -6072,13 +6119,13 @@
         <v>67</v>
       </c>
       <c r="AG30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AH30" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI30" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AJ30" s="0" t="s">
         <v>87</v>
@@ -6093,7 +6140,7 @@
         <v>45270</v>
       </c>
       <c r="AN30" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AP30" s="0" t="s">
         <v>75</v>
@@ -6154,7 +6201,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>58</v>
@@ -6314,7 +6361,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>58</v>
@@ -6323,7 +6370,7 @@
         <v>41247</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>41605</v>
@@ -6356,7 +6403,7 @@
         <v>58</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>67</v>
@@ -6380,7 +6427,7 @@
         <v>41247</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="AA32" s="0" t="s">
         <v>88</v>
@@ -6416,7 +6463,7 @@
         <v>41247</v>
       </c>
       <c r="AM32" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="AN32" s="0" t="s">
         <v>88</v>
@@ -6480,7 +6527,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>91</v>
@@ -6522,7 +6569,7 @@
         <v>91</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>67</v>
@@ -6646,7 +6693,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>91</v>
@@ -6688,7 +6735,7 @@
         <v>91</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>67</v>
@@ -6812,7 +6859,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>106</v>
@@ -6854,7 +6901,7 @@
         <v>106</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>67</v>
@@ -6978,7 +7025,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>106</v>
@@ -7144,7 +7191,7 @@
         <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>106</v>
@@ -7153,7 +7200,7 @@
         <v>41611</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>41611</v>
@@ -7162,16 +7209,16 @@
         <v>59</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>999</v>
@@ -7186,7 +7233,7 @@
         <v>106</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="S37" s="0" t="s">
         <v>67</v>
@@ -7210,7 +7257,7 @@
         <v>41611</v>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="AA37" s="0" t="s">
         <v>70</v>
@@ -7246,7 +7293,7 @@
         <v>41611</v>
       </c>
       <c r="AM37" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="AN37" s="0" t="s">
         <v>70</v>
@@ -7310,10 +7357,10 @@
         <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>41248</v>
@@ -7349,22 +7396,22 @@
         <v>72</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="S38" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U38" s="0" t="s">
         <v>97</v>
       </c>
       <c r="V38" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W38" s="0" t="s">
         <v>66</v>
@@ -7379,13 +7426,13 @@
         <v>44900</v>
       </c>
       <c r="AA38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC38" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE38" s="0" t="s">
         <v>87</v>
@@ -7394,13 +7441,13 @@
         <v>67</v>
       </c>
       <c r="AG38" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH38" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI38" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ38" s="0" t="s">
         <v>87</v>
@@ -7415,7 +7462,7 @@
         <v>44900</v>
       </c>
       <c r="AN38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AP38" s="0" t="s">
         <v>75</v>
@@ -7476,10 +7523,10 @@
         <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>41248</v>
@@ -7515,28 +7562,28 @@
         <v>72</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U39" s="0" t="s">
         <v>97</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W39" s="0" t="s">
         <v>87</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>41248</v>
@@ -7545,13 +7592,13 @@
         <v>44900</v>
       </c>
       <c r="AA39" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE39" s="0" t="s">
         <v>87</v>
@@ -7560,13 +7607,13 @@
         <v>67</v>
       </c>
       <c r="AG39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH39" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AI39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ39" s="0" t="s">
         <v>87</v>
@@ -7581,7 +7628,7 @@
         <v>44900</v>
       </c>
       <c r="AN39" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AP39" s="0" t="s">
         <v>74</v>
@@ -7642,7 +7689,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>131</v>
@@ -7705,7 +7752,7 @@
         <v>137</v>
       </c>
       <c r="AB40" s="0" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="AC40" s="0" t="s">
         <v>72</v>
@@ -7802,7 +7849,7 @@
         <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>141</v>
@@ -7865,7 +7912,7 @@
         <v>148</v>
       </c>
       <c r="AB41" s="0" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="AC41" s="0" t="s">
         <v>72</v>
@@ -7962,7 +8009,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>141</v>
@@ -8025,7 +8072,7 @@
         <v>148</v>
       </c>
       <c r="AB42" s="0" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="AC42" s="0" t="s">
         <v>72</v>
@@ -8122,7 +8169,7 @@
         <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>91</v>
@@ -8131,7 +8178,7 @@
         <v>41607</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>41605</v>
@@ -8140,16 +8187,16 @@
         <v>59</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>999</v>
@@ -8179,13 +8226,13 @@
         <v>41607</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AA43" s="0" t="s">
         <v>70</v>
       </c>
       <c r="AB43" s="0" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="AC43" s="0" t="s">
         <v>72</v>
@@ -8218,7 +8265,7 @@
         <v>41607</v>
       </c>
       <c r="AM43" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AN43" s="0" t="s">
         <v>70</v>
@@ -8282,7 +8329,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>91</v>
@@ -8291,7 +8338,7 @@
         <v>41613</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>41611</v>
@@ -8300,16 +8347,16 @@
         <v>59</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>999</v>
@@ -8339,13 +8386,13 @@
         <v>41613</v>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="AA44" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB44" s="0" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="AC44" s="0" t="s">
         <v>72</v>
@@ -8378,10 +8425,10 @@
         <v>41613</v>
       </c>
       <c r="AM44" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="AN44" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP44" s="0" t="s">
         <v>75</v>
@@ -8442,7 +8489,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>106</v>
@@ -8460,16 +8507,16 @@
         <v>59</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>999</v>
@@ -8502,10 +8549,10 @@
         <v>43082</v>
       </c>
       <c r="AA45" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB45" s="0" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="AC45" s="0" t="s">
         <v>72</v>
@@ -8541,7 +8588,7 @@
         <v>43082</v>
       </c>
       <c r="AN45" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP45" s="0" t="s">
         <v>75</v>
@@ -8602,16 +8649,16 @@
         <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>40889</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>41620</v>
@@ -8620,16 +8667,16 @@
         <v>59</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>999</v>
@@ -8641,10 +8688,10 @@
         <v>65</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="S46" s="0" t="s">
         <v>67</v>
@@ -8659,19 +8706,19 @@
         <v>40889</v>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AA46" s="0" t="s">
         <v>137</v>
       </c>
       <c r="AB46" s="0" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="AC46" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE46" s="0" t="s">
         <v>66</v>
@@ -8698,7 +8745,7 @@
         <v>40889</v>
       </c>
       <c r="AM46" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AN46" s="0" t="s">
         <v>137</v>
@@ -8762,16 +8809,16 @@
         <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>40889</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>41620</v>
@@ -8801,10 +8848,10 @@
         <v>65</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="S47" s="0" t="s">
         <v>67</v>
@@ -8819,19 +8866,19 @@
         <v>40889</v>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AA47" s="0" t="s">
         <v>137</v>
       </c>
       <c r="AB47" s="0" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="AC47" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE47" s="0" t="s">
         <v>66</v>
@@ -8858,7 +8905,7 @@
         <v>40889</v>
       </c>
       <c r="AM47" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AN47" s="0" t="s">
         <v>137</v>
@@ -8922,7 +8969,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>192</v>
@@ -8931,7 +8978,7 @@
         <v>41607</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>41605</v>
@@ -8979,13 +9026,13 @@
         <v>41607</v>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AA48" s="0" t="s">
         <v>70</v>
       </c>
       <c r="AB48" s="0" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="AC48" s="0" t="s">
         <v>72</v>
@@ -9018,7 +9065,7 @@
         <v>41607</v>
       </c>
       <c r="AM48" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AN48" s="0" t="s">
         <v>70</v>
@@ -9082,7 +9129,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>202</v>
@@ -9145,7 +9192,7 @@
         <v>70</v>
       </c>
       <c r="AB49" s="0" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="AC49" s="0" t="s">
         <v>72</v>
@@ -9242,7 +9289,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>211</v>
@@ -9305,7 +9352,7 @@
         <v>70</v>
       </c>
       <c r="AB50" s="0" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="AC50" s="0" t="s">
         <v>72</v>
@@ -9402,7 +9449,7 @@
         <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>220</v>
@@ -9465,7 +9512,7 @@
         <v>70</v>
       </c>
       <c r="AB51" s="0" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="AC51" s="0" t="s">
         <v>72</v>
@@ -9569,56 +9616,56 @@
   </sheetPr>
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC41" activeCellId="0" sqref="AC41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9740,10 +9787,10 @@
         <v>42</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AP1" s="0" t="s">
         <v>47</v>
@@ -9766,7 +9813,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>58</v>
@@ -9781,7 +9828,7 @@
         <v>41605</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>999</v>
@@ -9862,16 +9909,16 @@
         <v>75</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR2" s="0" t="n">
         <v>10000000</v>
@@ -9888,7 +9935,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>58</v>
@@ -9897,13 +9944,13 @@
         <v>41247</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>41605</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>999</v>
@@ -9942,7 +9989,7 @@
         <v>41247</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="W3" s="0" t="s">
         <v>88</v>
@@ -9978,7 +10025,7 @@
         <v>41247</v>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="AJ3" s="0" t="s">
         <v>88</v>
@@ -9990,16 +10037,16 @@
         <v>75</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR3" s="0" t="n">
         <v>10000000</v>
@@ -10016,7 +10063,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>91</v>
@@ -10031,7 +10078,7 @@
         <v>41605</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>999</v>
@@ -10118,16 +10165,16 @@
         <v>75</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR4" s="0" t="n">
         <v>10000000</v>
@@ -10144,7 +10191,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>91</v>
@@ -10159,7 +10206,7 @@
         <v>41605</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>999</v>
@@ -10174,7 +10221,7 @@
         <v>91</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>67</v>
@@ -10210,7 +10257,7 @@
         <v>91</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AB5" s="0" t="s">
         <v>67</v>
@@ -10246,16 +10293,16 @@
         <v>74</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR5" s="0" t="n">
         <v>10000000</v>
@@ -10272,7 +10319,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>106</v>
@@ -10287,7 +10334,7 @@
         <v>41605</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>999</v>
@@ -10374,16 +10421,16 @@
         <v>75</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR6" s="0" t="n">
         <v>10000000</v>
@@ -10400,7 +10447,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>106</v>
@@ -10415,7 +10462,7 @@
         <v>41605</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>999</v>
@@ -10430,7 +10477,7 @@
         <v>106</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>67</v>
@@ -10502,16 +10549,16 @@
         <v>74</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ7" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR7" s="0" t="n">
         <v>10000000</v>
@@ -10528,7 +10575,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>106</v>
@@ -10537,13 +10584,13 @@
         <v>41611</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>41611</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>999</v>
@@ -10558,7 +10605,7 @@
         <v>106</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>67</v>
@@ -10582,7 +10629,7 @@
         <v>41611</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="W8" s="0" t="s">
         <v>70</v>
@@ -10594,7 +10641,7 @@
         <v>106</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AB8" s="0" t="s">
         <v>67</v>
@@ -10618,7 +10665,7 @@
         <v>41611</v>
       </c>
       <c r="AI8" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="AJ8" s="0" t="s">
         <v>70</v>
@@ -10630,16 +10677,16 @@
         <v>74</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ8" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR8" s="0" t="n">
         <v>10000000</v>
@@ -10656,10 +10703,10 @@
         <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>41248</v>
@@ -10671,7 +10718,7 @@
         <v>41605</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>999</v>
@@ -10683,7 +10730,7 @@
         <v>72</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>66</v>
@@ -10692,13 +10739,13 @@
         <v>67</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>66</v>
@@ -10713,13 +10760,13 @@
         <v>44900</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y9" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA9" s="0" t="s">
         <v>87</v>
@@ -10728,13 +10775,13 @@
         <v>67</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF9" s="0" t="s">
         <v>87</v>
@@ -10749,7 +10796,7 @@
         <v>44900</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL9" s="0" t="s">
         <v>75</v>
@@ -10758,16 +10805,16 @@
         <v>74</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ9" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR9" s="0" t="n">
         <v>10000000</v>
@@ -10784,10 +10831,10 @@
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>41248</v>
@@ -10799,7 +10846,7 @@
         <v>41605</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>999</v>
@@ -10811,28 +10858,28 @@
         <v>72</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>97</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>87</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>41248</v>
@@ -10841,13 +10888,13 @@
         <v>44900</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y10" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA10" s="0" t="s">
         <v>87</v>
@@ -10856,13 +10903,13 @@
         <v>67</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD10" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF10" s="0" t="s">
         <v>87</v>
@@ -10877,7 +10924,7 @@
         <v>44900</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL10" s="0" t="s">
         <v>74</v>
@@ -10886,16 +10933,16 @@
         <v>75</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ10" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR10" s="0" t="n">
         <v>10000000</v>
@@ -10912,7 +10959,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>131</v>
@@ -10927,7 +10974,7 @@
         <v>41620</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>999</v>
@@ -10942,7 +10989,7 @@
         <v>131</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>67</v>
@@ -11008,16 +11055,16 @@
         <v>74</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ11" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR11" s="0" t="n">
         <v>10000000</v>
@@ -11034,7 +11081,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>141</v>
@@ -11043,13 +11090,13 @@
         <v>41409</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>42870</v>
+        <v>43084</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>41610</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>999</v>
@@ -11130,16 +11177,16 @@
         <v>75</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ12" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR12" s="0" t="n">
         <v>10000000</v>
@@ -11156,7 +11203,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>141</v>
@@ -11165,13 +11212,13 @@
         <v>41409</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>42870</v>
+        <v>43084</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>41610</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>999</v>
@@ -11207,7 +11254,7 @@
         <v>148</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Y13" s="0" t="s">
         <v>72</v>
@@ -11252,16 +11299,16 @@
         <v>74</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ13" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR13" s="0" t="n">
         <v>10000000</v>
@@ -11278,7 +11325,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>91</v>
@@ -11287,13 +11334,13 @@
         <v>41607</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>41605</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>999</v>
@@ -11323,13 +11370,13 @@
         <v>41607</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="W14" s="0" t="s">
         <v>70</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y14" s="0" t="s">
         <v>72</v>
@@ -11362,7 +11409,7 @@
         <v>41607</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AJ14" s="0" t="s">
         <v>70</v>
@@ -11374,16 +11421,16 @@
         <v>75</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ14" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR14" s="0" t="n">
         <v>10000000</v>
@@ -11400,7 +11447,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>91</v>
@@ -11409,13 +11456,13 @@
         <v>41613</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>41611</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>999</v>
@@ -11445,13 +11492,13 @@
         <v>41613</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y15" s="0" t="s">
         <v>72</v>
@@ -11484,10 +11531,10 @@
         <v>41613</v>
       </c>
       <c r="AI15" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL15" s="0" t="s">
         <v>75</v>
@@ -11496,16 +11543,16 @@
         <v>74</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR15" s="0" t="n">
         <v>10000000</v>
@@ -11522,7 +11569,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>106</v>
@@ -11537,7 +11584,7 @@
         <v>41620</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>999</v>
@@ -11570,10 +11617,10 @@
         <v>43082</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y16" s="0" t="s">
         <v>72</v>
@@ -11609,7 +11656,7 @@
         <v>43082</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" s="0" t="s">
         <v>75</v>
@@ -11618,16 +11665,16 @@
         <v>74</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ16" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR16" s="0" t="n">
         <v>10000000</v>
@@ -11644,22 +11691,22 @@
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>40889</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>44542</v>
+      <c r="G17" s="5" t="n">
+        <v>44543</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>41620</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>999</v>
@@ -11671,10 +11718,10 @@
         <v>65</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>67</v>
@@ -11689,7 +11736,7 @@
         <v>40889</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="W17" s="0" t="s">
         <v>137</v>
@@ -11701,7 +11748,7 @@
         <v>72</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA17" s="0" t="s">
         <v>66</v>
@@ -11728,7 +11775,7 @@
         <v>40889</v>
       </c>
       <c r="AI17" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AJ17" s="0" t="s">
         <v>137</v>
@@ -11740,16 +11787,16 @@
         <v>74</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ17" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR17" s="0" t="n">
         <v>10000000</v>
@@ -11766,22 +11813,22 @@
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>40889</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>41620</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>999</v>
@@ -11793,10 +11840,10 @@
         <v>65</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>67</v>
@@ -11811,7 +11858,7 @@
         <v>40889</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="W18" s="0" t="s">
         <v>137</v>
@@ -11823,7 +11870,7 @@
         <v>72</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA18" s="0" t="s">
         <v>66</v>
@@ -11850,7 +11897,7 @@
         <v>40889</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AJ18" s="0" t="s">
         <v>137</v>
@@ -11862,16 +11909,16 @@
         <v>75</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ18" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR18" s="0" t="n">
         <v>10000000</v>
@@ -11888,7 +11935,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>192</v>
@@ -11897,13 +11944,13 @@
         <v>41607</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>41605</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>999</v>
@@ -11933,7 +11980,7 @@
         <v>41607</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="W19" s="0" t="s">
         <v>70</v>
@@ -11972,7 +12019,7 @@
         <v>41607</v>
       </c>
       <c r="AI19" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AJ19" s="0" t="s">
         <v>70</v>
@@ -11984,16 +12031,16 @@
         <v>75</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO19" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP19" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ19" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR19" s="0" t="n">
         <v>10000000</v>
@@ -12010,7 +12057,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>202</v>
@@ -12025,7 +12072,7 @@
         <v>41605</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>999</v>
@@ -12106,16 +12153,16 @@
         <v>75</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP20" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ20" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR20" s="0" t="n">
         <v>10000000</v>
@@ -12132,7 +12179,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>211</v>
@@ -12147,7 +12194,7 @@
         <v>41605</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>999</v>
@@ -12228,16 +12275,16 @@
         <v>75</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO21" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP21" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ21" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR21" s="0" t="n">
         <v>10000000</v>
@@ -12254,7 +12301,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>220</v>
@@ -12269,7 +12316,7 @@
         <v>41605</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>999</v>
@@ -12350,16 +12397,16 @@
         <v>75</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP22" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ22" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR22" s="0" t="n">
         <v>10000000</v>
@@ -12376,7 +12423,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>229</v>
@@ -12391,7 +12438,7 @@
         <v>41605</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>999</v>
@@ -12472,16 +12519,16 @@
         <v>75</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP23" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ23" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR23" s="0" t="n">
         <v>10000000</v>
@@ -12498,7 +12545,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>229</v>
@@ -12513,7 +12560,7 @@
         <v>41605</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>999</v>
@@ -12549,7 +12596,7 @@
         <v>70</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y24" s="0" t="s">
         <v>72</v>
@@ -12594,16 +12641,16 @@
         <v>74</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP24" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ24" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR24" s="0" t="n">
         <v>10000000</v>
@@ -12620,22 +12667,22 @@
         <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>41618</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>41614</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>999</v>
@@ -12647,16 +12694,16 @@
         <v>65</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>67</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>147</v>
@@ -12665,19 +12712,19 @@
         <v>41618</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y25" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA25" s="0" t="s">
         <v>87</v>
@@ -12686,13 +12733,13 @@
         <v>67</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AD25" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE25" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF25" s="0" t="s">
         <v>87</v>
@@ -12704,10 +12751,10 @@
         <v>41618</v>
       </c>
       <c r="AI25" s="2" t="n">
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="AJ25" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL25" s="0" t="s">
         <v>75</v>
@@ -12716,16 +12763,16 @@
         <v>74</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP25" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ25" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR25" s="0" t="n">
         <v>10000000</v>
@@ -12742,22 +12789,22 @@
         <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>41607</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>41605</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>999</v>
@@ -12769,7 +12816,7 @@
         <v>65</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>66</v>
@@ -12778,7 +12825,7 @@
         <v>67</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>69</v>
@@ -12787,19 +12834,19 @@
         <v>41607</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="W26" s="0" t="s">
         <v>70</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="Y26" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA26" s="0" t="s">
         <v>66</v>
@@ -12808,13 +12855,13 @@
         <v>67</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AD26" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AE26" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF26" s="0" t="s">
         <v>66</v>
@@ -12826,7 +12873,7 @@
         <v>41607</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AJ26" s="0" t="s">
         <v>70</v>
@@ -12838,16 +12885,16 @@
         <v>74</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP26" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ26" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR26" s="0" t="n">
         <v>10000000</v>
@@ -12864,10 +12911,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>41605</v>
@@ -12879,7 +12926,7 @@
         <v>41605</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>999</v>
@@ -12891,7 +12938,7 @@
         <v>65</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>87</v>
@@ -12900,7 +12947,7 @@
         <v>67</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>69</v>
@@ -12915,13 +12962,13 @@
         <v>70</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Y27" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AA27" s="0" t="s">
         <v>87</v>
@@ -12930,13 +12977,13 @@
         <v>67</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AD27" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF27" s="0" t="s">
         <v>87</v>
@@ -12960,16 +13007,16 @@
         <v>74</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP27" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ27" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR27" s="0" t="n">
         <v>10000000</v>
@@ -12986,10 +13033,10 @@
         <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>41613</v>
@@ -13001,7 +13048,7 @@
         <v>41611</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>999</v>
@@ -13013,7 +13060,7 @@
         <v>65</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>87</v>
@@ -13022,7 +13069,7 @@
         <v>67</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>69</v>
@@ -13034,16 +13081,16 @@
         <v>43074</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Y28" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA28" s="0" t="s">
         <v>87</v>
@@ -13052,13 +13099,13 @@
         <v>67</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD28" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE28" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF28" s="0" t="s">
         <v>87</v>
@@ -13073,7 +13120,7 @@
         <v>43074</v>
       </c>
       <c r="AJ28" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL28" s="0" t="s">
         <v>75</v>
@@ -13082,16 +13129,16 @@
         <v>74</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP28" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ28" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR28" s="0" t="n">
         <v>10000000</v>
@@ -13108,10 +13155,10 @@
         <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>41613</v>
@@ -13123,19 +13170,19 @@
         <v>41611</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>999</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>65</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>87</v>
@@ -13144,7 +13191,7 @@
         <v>67</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>69</v>
@@ -13156,16 +13203,16 @@
         <v>45265</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y29" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA29" s="0" t="s">
         <v>87</v>
@@ -13174,13 +13221,13 @@
         <v>67</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD29" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE29" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF29" s="0" t="s">
         <v>87</v>
@@ -13195,7 +13242,7 @@
         <v>45265</v>
       </c>
       <c r="AJ29" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL29" s="0" t="s">
         <v>75</v>
@@ -13204,16 +13251,16 @@
         <v>74</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP29" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ29" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR29" s="0" t="n">
         <v>10000000</v>
@@ -13230,10 +13277,10 @@
         <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>41618</v>
@@ -13245,19 +13292,19 @@
         <v>41614</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>999</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>65</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>66</v>
@@ -13266,7 +13313,7 @@
         <v>67</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>147</v>
@@ -13278,16 +13325,16 @@
         <v>45270</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Y30" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AA30" s="0" t="s">
         <v>87</v>
@@ -13296,13 +13343,13 @@
         <v>67</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AD30" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE30" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF30" s="0" t="s">
         <v>87</v>
@@ -13317,7 +13364,7 @@
         <v>45270</v>
       </c>
       <c r="AJ30" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL30" s="0" t="s">
         <v>75</v>
@@ -13326,16 +13373,16 @@
         <v>74</v>
       </c>
       <c r="AN30" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP30" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ30" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR30" s="0" t="n">
         <v>10000000</v>
@@ -13352,7 +13399,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>58</v>
@@ -13367,7 +13414,7 @@
         <v>41605</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>999</v>
@@ -13448,16 +13495,16 @@
         <v>75</v>
       </c>
       <c r="AN31" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO31" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP31" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ31" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR31" s="0" t="n">
         <v>10000000</v>
@@ -13474,7 +13521,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>58</v>
@@ -13483,13 +13530,13 @@
         <v>41247</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>41605</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>999</v>
@@ -13504,7 +13551,7 @@
         <v>58</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>67</v>
@@ -13528,7 +13575,7 @@
         <v>41247</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="W32" s="0" t="s">
         <v>88</v>
@@ -13564,7 +13611,7 @@
         <v>41247</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="AJ32" s="0" t="s">
         <v>88</v>
@@ -13576,16 +13623,16 @@
         <v>75</v>
       </c>
       <c r="AN32" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO32" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP32" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ32" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR32" s="0" t="n">
         <v>10000000</v>
@@ -13602,7 +13649,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>91</v>
@@ -13617,7 +13664,7 @@
         <v>41605</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>999</v>
@@ -13632,7 +13679,7 @@
         <v>91</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>67</v>
@@ -13704,16 +13751,16 @@
         <v>75</v>
       </c>
       <c r="AN33" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP33" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ33" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR33" s="0" t="n">
         <v>10000000</v>
@@ -13730,7 +13777,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>91</v>
@@ -13745,7 +13792,7 @@
         <v>41605</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>999</v>
@@ -13760,7 +13807,7 @@
         <v>91</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>67</v>
@@ -13832,16 +13879,16 @@
         <v>74</v>
       </c>
       <c r="AN34" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO34" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP34" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ34" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR34" s="0" t="n">
         <v>10000000</v>
@@ -13858,7 +13905,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>106</v>
@@ -13873,7 +13920,7 @@
         <v>41605</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>999</v>
@@ -13888,7 +13935,7 @@
         <v>106</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>67</v>
@@ -13960,16 +14007,16 @@
         <v>75</v>
       </c>
       <c r="AN35" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO35" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP35" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ35" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR35" s="0" t="n">
         <v>10000000</v>
@@ -13986,7 +14033,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>106</v>
@@ -14001,7 +14048,7 @@
         <v>41605</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>999</v>
@@ -14088,16 +14135,16 @@
         <v>74</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO36" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP36" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ36" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR36" s="0" t="n">
         <v>10000000</v>
@@ -14114,7 +14161,7 @@
         <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>106</v>
@@ -14123,13 +14170,13 @@
         <v>41611</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>41611</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>999</v>
@@ -14144,7 +14191,7 @@
         <v>106</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>67</v>
@@ -14168,7 +14215,7 @@
         <v>41611</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="W37" s="0" t="s">
         <v>70</v>
@@ -14204,7 +14251,7 @@
         <v>41611</v>
       </c>
       <c r="AI37" s="2" t="n">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="AJ37" s="0" t="s">
         <v>70</v>
@@ -14216,16 +14263,16 @@
         <v>74</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO37" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP37" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ37" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR37" s="0" t="n">
         <v>10000000</v>
@@ -14242,10 +14289,10 @@
         <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>41248</v>
@@ -14257,7 +14304,7 @@
         <v>41605</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>999</v>
@@ -14269,22 +14316,22 @@
         <v>72</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>67</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>97</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S38" s="0" t="s">
         <v>66</v>
@@ -14299,13 +14346,13 @@
         <v>44900</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y38" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA38" s="0" t="s">
         <v>87</v>
@@ -14314,13 +14361,13 @@
         <v>67</v>
       </c>
       <c r="AC38" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD38" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE38" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF38" s="0" t="s">
         <v>87</v>
@@ -14335,7 +14382,7 @@
         <v>44900</v>
       </c>
       <c r="AJ38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL38" s="0" t="s">
         <v>75</v>
@@ -14344,16 +14391,16 @@
         <v>74</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO38" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP38" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ38" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR38" s="0" t="n">
         <v>10000000</v>
@@ -14370,10 +14417,10 @@
         <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>41248</v>
@@ -14385,7 +14432,7 @@
         <v>41605</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>999</v>
@@ -14397,28 +14444,28 @@
         <v>72</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>67</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q39" s="0" t="s">
         <v>97</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>87</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U39" s="2" t="n">
         <v>41248</v>
@@ -14427,13 +14474,13 @@
         <v>44900</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y39" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA39" s="0" t="s">
         <v>87</v>
@@ -14442,13 +14489,13 @@
         <v>67</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD39" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AE39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF39" s="0" t="s">
         <v>87</v>
@@ -14463,7 +14510,7 @@
         <v>44900</v>
       </c>
       <c r="AJ39" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL39" s="0" t="s">
         <v>74</v>
@@ -14472,16 +14519,16 @@
         <v>75</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO39" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP39" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ39" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR39" s="0" t="n">
         <v>10000000</v>
@@ -14498,7 +14545,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>131</v>
@@ -14513,7 +14560,7 @@
         <v>41620</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>999</v>
@@ -14549,7 +14596,7 @@
         <v>137</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="Y40" s="0" t="s">
         <v>72</v>
@@ -14594,16 +14641,16 @@
         <v>74</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO40" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP40" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ40" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR40" s="0" t="n">
         <v>10000000</v>
@@ -14620,7 +14667,7 @@
         <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>141</v>
@@ -14635,7 +14682,7 @@
         <v>41610</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>999</v>
@@ -14671,7 +14718,7 @@
         <v>148</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="Y41" s="0" t="s">
         <v>72</v>
@@ -14716,16 +14763,16 @@
         <v>75</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO41" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP41" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ41" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR41" s="0" t="n">
         <v>10000000</v>
@@ -14742,7 +14789,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>141</v>
@@ -14757,7 +14804,7 @@
         <v>41610</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>999</v>
@@ -14793,7 +14840,7 @@
         <v>148</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="Y42" s="0" t="s">
         <v>72</v>
@@ -14838,16 +14885,16 @@
         <v>74</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO42" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP42" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ42" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR42" s="0" t="n">
         <v>10000000</v>
@@ -14864,7 +14911,7 @@
         <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>91</v>
@@ -14873,13 +14920,13 @@
         <v>41607</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>41605</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>999</v>
@@ -14909,13 +14956,13 @@
         <v>41607</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="W43" s="0" t="s">
         <v>70</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="Y43" s="0" t="s">
         <v>72</v>
@@ -14948,7 +14995,7 @@
         <v>41607</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AJ43" s="0" t="s">
         <v>70</v>
@@ -14960,16 +15007,16 @@
         <v>75</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO43" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP43" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ43" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR43" s="0" t="n">
         <v>10000000</v>
@@ -14986,7 +15033,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>91</v>
@@ -14995,13 +15042,13 @@
         <v>41613</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>41611</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>999</v>
@@ -15031,13 +15078,13 @@
         <v>41613</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X44" s="0" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="Y44" s="0" t="s">
         <v>72</v>
@@ -15070,10 +15117,10 @@
         <v>41613</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>52570</v>
+        <v>52569</v>
       </c>
       <c r="AJ44" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL44" s="0" t="s">
         <v>75</v>
@@ -15082,16 +15129,16 @@
         <v>74</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO44" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP44" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ44" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR44" s="0" t="n">
         <v>10000000</v>
@@ -15108,7 +15155,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>106</v>
@@ -15123,7 +15170,7 @@
         <v>41620</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>999</v>
@@ -15156,10 +15203,10 @@
         <v>43082</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X45" s="0" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="Y45" s="0" t="s">
         <v>72</v>
@@ -15195,7 +15242,7 @@
         <v>43082</v>
       </c>
       <c r="AJ45" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL45" s="0" t="s">
         <v>75</v>
@@ -15204,16 +15251,16 @@
         <v>74</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO45" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP45" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ45" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR45" s="0" t="n">
         <v>10000000</v>
@@ -15230,22 +15277,22 @@
         <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>40889</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>41620</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>999</v>
@@ -15257,10 +15304,10 @@
         <v>65</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>67</v>
@@ -15275,19 +15322,19 @@
         <v>40889</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="W46" s="0" t="s">
         <v>137</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="Y46" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA46" s="0" t="s">
         <v>66</v>
@@ -15314,7 +15361,7 @@
         <v>40889</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AJ46" s="0" t="s">
         <v>137</v>
@@ -15326,16 +15373,16 @@
         <v>74</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO46" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP46" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ46" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR46" s="0" t="n">
         <v>10000000</v>
@@ -15352,22 +15399,22 @@
         <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>40889</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>41620</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>999</v>
@@ -15379,10 +15426,10 @@
         <v>65</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>67</v>
@@ -15397,19 +15444,19 @@
         <v>40889</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="W47" s="0" t="s">
         <v>137</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="Y47" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA47" s="0" t="s">
         <v>66</v>
@@ -15436,7 +15483,7 @@
         <v>40889</v>
       </c>
       <c r="AI47" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="AJ47" s="0" t="s">
         <v>137</v>
@@ -15448,16 +15495,16 @@
         <v>75</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO47" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP47" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ47" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR47" s="0" t="n">
         <v>10000000</v>
@@ -15474,7 +15521,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>192</v>
@@ -15483,13 +15530,13 @@
         <v>41607</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>41605</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>999</v>
@@ -15519,13 +15566,13 @@
         <v>41607</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="W48" s="0" t="s">
         <v>70</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="Y48" s="0" t="s">
         <v>72</v>
@@ -15558,7 +15605,7 @@
         <v>41607</v>
       </c>
       <c r="AI48" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="AJ48" s="0" t="s">
         <v>70</v>
@@ -15570,16 +15617,16 @@
         <v>75</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO48" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP48" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ48" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR48" s="0" t="n">
         <v>10000000</v>
@@ -15596,7 +15643,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>202</v>
@@ -15611,7 +15658,7 @@
         <v>41605</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>999</v>
@@ -15647,7 +15694,7 @@
         <v>70</v>
       </c>
       <c r="X49" s="0" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="Y49" s="0" t="s">
         <v>72</v>
@@ -15692,16 +15739,16 @@
         <v>75</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO49" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP49" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ49" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR49" s="0" t="n">
         <v>10000000</v>
@@ -15718,7 +15765,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>211</v>
@@ -15733,7 +15780,7 @@
         <v>41605</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>999</v>
@@ -15769,7 +15816,7 @@
         <v>70</v>
       </c>
       <c r="X50" s="0" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="Y50" s="0" t="s">
         <v>72</v>
@@ -15814,16 +15861,16 @@
         <v>75</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO50" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP50" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ50" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR50" s="0" t="n">
         <v>10000000</v>
@@ -15840,7 +15887,7 @@
         <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>220</v>
@@ -15855,7 +15902,7 @@
         <v>41605</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>999</v>
@@ -15891,7 +15938,7 @@
         <v>70</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="Y51" s="0" t="s">
         <v>72</v>
@@ -15936,16 +15983,16 @@
         <v>75</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AO51" s="4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AP51" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AQ51" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AR51" s="0" t="n">
         <v>10000000</v>
